--- a/Data_Model_coba.xlsx
+++ b/Data_Model_coba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00-BANGKIT\Capstone\Model_Kmeans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4BF04E-03FA-4F27-8B5A-4640798DEE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177FAB3F-3312-43B1-B3EE-2B8933A32259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{8A6521C8-5410-420D-9458-7E72D049DA82}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A6521C8-5410-420D-9458-7E72D049DA82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -702,6 +702,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
